--- a/files/static/shd/Scheduling Format.xlsx
+++ b/files/static/shd/Scheduling Format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashandeep.singh.CBB\Desktop\liveVersion4\files\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashandeep.singh.CBB\Desktop\liveVersion4\files\static\shd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483967C0-99E8-4D3F-A430-213CCA159445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291C7E9A-65A5-4C26-9493-D540404EF938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,18 +224,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -514,7 +503,7 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,11 +529,11 @@
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
     <col min="25" max="25" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">

--- a/files/static/shd/Scheduling Format.xlsx
+++ b/files/static/shd/Scheduling Format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashandeep.singh.CBB\Desktop\liveVersion4\files\static\shd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291C7E9A-65A5-4C26-9493-D540404EF938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9E12C9-433D-46D0-8F79-6DBBD9FB5EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,8 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
